--- a/data/trans_orig/P14A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FB66DF0-D697-4136-8F51-5371098A430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A6E284-B9E2-466D-BFEB-F1872EC55C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27BB2855-73F9-47FF-B65B-6A6E95597995}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BA02E9D-B96A-4C7E-B8F4-F48430BEF6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>76,93%</t>
+    <t>76,63%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -129,7 +129,7 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>23,07%</t>
+    <t>23,37%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -138,7 +138,7 @@
     <t>94,93%</t>
   </si>
   <si>
-    <t>76,03%</t>
+    <t>76,89%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -147,13 +147,13 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>81,58%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>23,97%</t>
+    <t>23,11%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -162,7 +162,7 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>18,42%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -171,7 +171,7 @@
     <t>89,66%</t>
   </si>
   <si>
-    <t>58,88%</t>
+    <t>58,84%</t>
   </si>
   <si>
     <t>83,63%</t>
@@ -183,13 +183,13 @@
     <t>87,06%</t>
   </si>
   <si>
-    <t>60,91%</t>
+    <t>62,54%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>41,12%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>16,37%</t>
@@ -201,7 +201,7 @@
     <t>12,94%</t>
   </si>
   <si>
-    <t>39,09%</t>
+    <t>37,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -210,7 +210,7 @@
     <t>91,22%</t>
   </si>
   <si>
-    <t>73,52%</t>
+    <t>72,37%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -219,13 +219,13 @@
     <t>94,02%</t>
   </si>
   <si>
-    <t>79,56%</t>
+    <t>78,86%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>26,48%</t>
+    <t>27,63%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -234,28 +234,28 @@
     <t>5,98%</t>
   </si>
   <si>
-    <t>20,44%</t>
+    <t>21,14%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>76,2%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>88,05%</t>
+    <t>87,39%</t>
   </si>
   <si>
     <t>97,9%</t>
@@ -264,16 +264,16 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>23,8%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>6,03%</t>
@@ -282,7 +282,7 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>11,95%</t>
+    <t>12,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -297,7 +297,7 @@
     <t>94,53%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,43%</t>
   </si>
   <si>
     <t>91,1%</t>
@@ -309,13 +309,13 @@
     <t>93,05%</t>
   </si>
   <si>
-    <t>76,26%</t>
+    <t>78,48%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,57%</t>
   </si>
   <si>
     <t>8,9%</t>
@@ -327,7 +327,7 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>23,74%</t>
+    <t>21,52%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -336,13 +336,13 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>63,38%</t>
+    <t>68,77%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>85,6%</t>
+    <t>82,46%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -351,13 +351,13 @@
     <t>7,2%</t>
   </si>
   <si>
-    <t>36,62%</t>
+    <t>31,23%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>14,4%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -375,103 +375,103 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>56,08%</t>
+    <t>56,22%</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>43,92%</t>
+    <t>43,78%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED5B55-9AFD-4067-B654-CEE97CD861A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E972A-7188-4E66-92E7-396A340ADD57}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1946,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D055959-9F73-4A64-BEB0-BC6E2E7D0BD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D08598-1980-4734-9821-DE3623CE6DA5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A6E284-B9E2-466D-BFEB-F1872EC55C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{839C3BF4-EBE0-4E71-ADCD-AE90F2A14D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BA02E9D-B96A-4C7E-B8F4-F48430BEF6B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16E3AB74-13C7-439F-9889-111AB9CB34EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="141">
   <si>
     <t>Población que recibe medicación o terapia por infarto de miocardio en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -99,7 +99,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -108,13 +108,13 @@
     <t>87,78%</t>
   </si>
   <si>
-    <t>50,37%</t>
+    <t>49,35%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>76,63%</t>
+    <t>79,34%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -123,22 +123,22 @@
     <t>12,22%</t>
   </si>
   <si>
-    <t>49,63%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>76,89%</t>
+    <t>78,59%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -147,13 +147,13 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>81,8%</t>
+    <t>85,35%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>23,11%</t>
+    <t>21,41%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -162,46 +162,46 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>58,84%</t>
+    <t>58,73%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>38,34%</t>
+    <t>37,96%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>62,54%</t>
+    <t>60,97%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>41,16%</t>
+    <t>41,27%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>61,66%</t>
+    <t>62,04%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>37,46%</t>
+    <t>39,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -219,7 +219,7 @@
     <t>94,02%</t>
   </si>
   <si>
-    <t>78,86%</t>
+    <t>81,55%</t>
   </si>
   <si>
     <t>8,78%</t>
@@ -234,61 +234,61 @@
     <t>5,98%</t>
   </si>
   <si>
-    <t>21,14%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>81,31%</t>
+    <t>79,29%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por infarto de miocardio en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población que recibe medicación o terapia por infarto de miocardio en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -297,37 +297,37 @@
     <t>94,53%</t>
   </si>
   <si>
-    <t>75,43%</t>
+    <t>73,78%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>62,41%</t>
+    <t>54,29%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>78,48%</t>
+    <t>75,31%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>24,57%</t>
+    <t>26,22%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>37,59%</t>
+    <t>45,71%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>21,52%</t>
+    <t>24,69%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -336,13 +336,13 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>68,77%</t>
+    <t>69,8%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>82,46%</t>
+    <t>82,84%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -351,13 +351,13 @@
     <t>7,2%</t>
   </si>
   <si>
-    <t>31,23%</t>
+    <t>30,2%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>17,54%</t>
+    <t>17,16%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -375,103 +375,91 @@
     <t>81,15%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>56,22%</t>
+    <t>55,82%</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>43,78%</t>
+    <t>44,18%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>3,19%</t>
   </si>
 </sst>
 </file>
@@ -883,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E972A-7188-4E66-92E7-396A340ADD57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3876E0E6-BB55-4868-8C08-E511A7A2503C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1946,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D08598-1980-4734-9821-DE3623CE6DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C74F3D-A7DC-4B86-8BAA-D6977D097625}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2848,7 @@
         <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2869,13 +2857,13 @@
         <v>103237</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2878,13 @@
         <v>4910</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2905,13 +2893,13 @@
         <v>3178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2920,13 +2908,13 @@
         <v>8088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
